--- a/va_facility_data_2025-02-20/Hamilton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hamilton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hamilton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hamilton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2bb10ba676e74f8280640ddaa9a403de"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R599e510d199c471a9de528c435744ab6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1a39fe41243f44eb97d09fc782c63d4e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R70dfe307da8e40a5a71fe17feaa001bd"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rda14694320d34fbe9c303dffe6c8c559"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8cfd38f608f341fc899964b9aea3fef5"/>
   </x:sheets>
 </x:workbook>
 </file>
